--- a/data/resumes_scrubbed/confirmations/100_1.xlsx
+++ b/data/resumes_scrubbed/confirmations/100_1.xlsx
@@ -1,67 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a41d8b392a254fb/Documents/Career/Portfolio Projects/Congressional Data Scrape and Validation/data/resumes_scrubbed/confirmations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:40009_{E51228B0-9815-4D17-A595-F755D4A58536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B20CB7D8-D869-4A78-85C9-F951878AE3C2}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:40009_{B7F2F9BC-26F6-4174-845E-0301BA6B3E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E919EB84-4307-443E-9B31-26BEE9F2E603}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="100_2" sheetId="1" r:id="rId1"/>
+    <sheet name="100_1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     New nominations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Civilian </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air Force </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Army </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marine Corps </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Confirmed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Unconfirmed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Withdrawn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Rejected </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Returned </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Returned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total nominations received </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+  <si>
+    <t>Civilian (lists)</t>
+  </si>
+  <si>
+    <t>Air Force</t>
+  </si>
+  <si>
+    <t>Army</t>
+  </si>
+  <si>
+    <t>Navy</t>
+  </si>
+  <si>
+    <t>Marine Corps</t>
+  </si>
+  <si>
+    <t>Civilian</t>
   </si>
   <si>
     <t xml:space="preserve">Total confirmed </t>
@@ -76,7 +52,7 @@
     <t>Total rejected</t>
   </si>
   <si>
-    <t>Total returned</t>
+    <t xml:space="preserve">Total returned             </t>
   </si>
   <si>
     <t>Labels</t>
@@ -95,6 +71,81 @@
   </si>
   <si>
     <t>End Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian, Confirmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian, Unconfirmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian, Withdrawn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian, Rejected  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian (lists), New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian (lists), Confirmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian (lists), Unconfirmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Air Force, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Air Force, Confirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Air Force, Unconfirmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Air Force, Returned  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Army, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Army, Confirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Army, Unconfirmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Army, Returned  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Navy, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Navy, Confirmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Navy, Unconfirmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Marine Corps, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Marine Corps, Confirmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Marine Corps, Unconfirmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian, Returned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Marine Corps, Returned</t>
+  </si>
+  <si>
+    <t>Total new nominations</t>
   </si>
 </sst>
 </file>
@@ -971,8 +1022,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -984,15 +1034,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2">
         <v>100</v>
@@ -1000,7 +1050,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -1008,7 +1058,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4">
         <v>31783</v>
@@ -1016,7 +1066,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4">
         <v>32133</v>
@@ -1024,12 +1074,12 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2">
         <v>470</v>
@@ -1037,7 +1087,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2">
         <v>331</v>
@@ -1045,7 +1095,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2">
         <v>112</v>
@@ -1053,7 +1103,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2">
         <v>10</v>
@@ -1061,12 +1111,12 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2">
         <v>16</v>
@@ -1074,12 +1124,12 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B14" s="3">
         <v>4248</v>
@@ -1087,7 +1137,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B15" s="3">
         <v>4238</v>
@@ -1095,7 +1145,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2">
         <v>10</v>
@@ -1103,12 +1153,12 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B18" s="3">
         <v>18667</v>
@@ -1116,7 +1166,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B19" s="3">
         <v>15711</v>
@@ -1124,7 +1174,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B20" s="3">
         <v>2955</v>
@@ -1132,17 +1182,17 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B23" s="3">
         <v>14448</v>
@@ -1150,7 +1200,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B24" s="3">
         <v>12086</v>
@@ -1158,7 +1208,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B25" s="3">
         <v>2361</v>
@@ -1166,17 +1216,17 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B28" s="3">
         <v>12101</v>
@@ -1184,7 +1234,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B29" s="3">
         <v>12055</v>
@@ -1192,7 +1242,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2">
         <v>46</v>
@@ -1200,12 +1250,12 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B32" s="3">
         <v>1995</v>
@@ -1213,7 +1263,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B33" s="3">
         <v>1983</v>
@@ -1221,7 +1271,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2">
         <v>10</v>
@@ -1229,7 +1279,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2">
         <v>2</v>
@@ -1237,54 +1287,49 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="B36" s="3">
+        <v>51929</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B37" s="3">
-        <v>51929</v>
+        <v>46404</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B38" s="3">
-        <v>46404</v>
+        <v>5494</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="3">
-        <v>5494</v>
+        <v>8</v>
+      </c>
+      <c r="B39" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B40" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B41" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="2">
         <v>20</v>
       </c>
     </row>

--- a/data/resumes_scrubbed/confirmations/100_1.xlsx
+++ b/data/resumes_scrubbed/confirmations/100_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a41d8b392a254fb/Documents/Career/Portfolio Projects/Congressional Data Scrape and Validation/data/resumes_scrubbed/confirmations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:40009_{B7F2F9BC-26F6-4174-845E-0301BA6B3E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E919EB84-4307-443E-9B31-26BEE9F2E603}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:40009_{B7F2F9BC-26F6-4174-845E-0301BA6B3E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8852ADB4-7160-4571-989D-EB1E368DB8DB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="100_1" sheetId="1" r:id="rId1"/>
@@ -1113,6 +1113,9 @@
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -1184,6 +1187,9 @@
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -1217,6 +1223,9 @@
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
